--- a/Excel Files/Practice_File_Day 1.xlsx
+++ b/Excel Files/Practice_File_Day 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadd Mentor\Student_Class_Code\Dhruv Python Classes\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF25B4A9-2BA7-4911-82C9-20AC8C3B4992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B575D4-8F09-489E-826D-209D224BAA29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14880" windowHeight="6516" xr2:uid="{987D617A-5F5C-40F9-950A-EEE46E43C9F4}"/>
   </bookViews>
@@ -74,9 +74,9 @@
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="176" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -147,139 +147,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -592,7 +481,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,30 +494,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="6"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="1"/>
-      <c r="G2" s="6"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="1"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -650,10 +539,10 @@
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>0.75</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -668,10 +557,10 @@
       <c r="D5" s="2">
         <v>42</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>3400</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>44632</v>
       </c>
     </row>
@@ -688,10 +577,10 @@
       <c r="D6" s="2">
         <v>43</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>2300</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>45405</v>
       </c>
     </row>
@@ -708,10 +597,10 @@
       <c r="D7" s="2">
         <v>63</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>3600</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -726,37 +615,37 @@
       <c r="D8" s="2">
         <v>75</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>7600</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>56.345599999999997</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>123456789</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>345.34559999999999</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>7.0987600000000004</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>0.56000000000000005</v>
       </c>
     </row>
